--- a/BrainStorm/Application Flow/Basic FLow.xlsx
+++ b/BrainStorm/Application Flow/Basic FLow.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -73,63 +74,3154 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE858CD3-19D8-453D-A168-A755714CDF2E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Purchasing</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{68E349BD-505F-452E-B1B3-739B56CE5405}" type="parTrans" cxnId="{61193226-30E3-494B-AB8E-EDFD8717A978}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27465E25-E779-4CFF-93FD-E5C710F1AAD6}" type="sibTrans" cxnId="{61193226-30E3-494B-AB8E-EDFD8717A978}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B6E70FD7-0C70-49A6-ACAB-B2964D34584C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Buys items</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A4CC741B-A28A-4537-BE68-DC5225FB6330}" type="parTrans" cxnId="{1CDDF8CE-C401-4548-A624-58C1D2220191}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58647D4B-7280-4A6A-83BD-5C563B02171D}" type="sibTrans" cxnId="{1CDDF8CE-C401-4548-A624-58C1D2220191}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7649131-46C2-4BCA-B4FA-5727C1E87049}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Inventory</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E6ACB66E-5F75-40F0-A65D-C52CBC1A14FA}" type="parTrans" cxnId="{A60F6407-050E-47CC-B193-615DB752784D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B68903F-04D7-4FCF-BF09-2C86F4835E73}" type="sibTrans" cxnId="{A60F6407-050E-47CC-B193-615DB752784D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E9337BDD-54A5-4F9A-A271-FB65828DED21}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Manage stocks</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1ED7153A-FFA5-41E0-ADFA-06174B7881B5}" type="parTrans" cxnId="{5397E603-DC95-4578-8612-6E3557CB4A6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27778BE7-2A9D-49C8-B113-EFBFA3B237C4}" type="sibTrans" cxnId="{5397E603-DC95-4578-8612-6E3557CB4A6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Sales</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C2248E3D-9640-4395-8589-211C39C4346C}" type="parTrans" cxnId="{3DD67181-547C-44EE-827B-42460006986A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E0D0686A-6C4F-4CB8-B280-41E1032E3F7C}" type="sibTrans" cxnId="{3DD67181-547C-44EE-827B-42460006986A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Market</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B13253C-0700-4E20-BC9D-5277E92EE313}" type="parTrans" cxnId="{C30CBE92-8F05-4F65-9A42-B5750AF0D88E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C41830A-D189-4527-BC01-6B82E838CA2E}" type="sibTrans" cxnId="{C30CBE92-8F05-4F65-9A42-B5750AF0D88E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50A715A9-6C4D-4FAB-BE31-5264609B3984}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>In &amp; out of stocks</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8605791B-4040-43B5-8627-46FDB6386791}" type="parTrans" cxnId="{FFD1D5E5-6C30-4F8C-9838-9076554800BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED1C0375-55F7-47FF-8AFC-69A04373F5E8}" type="sibTrans" cxnId="{FFD1D5E5-6C30-4F8C-9838-9076554800BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8475C3E5-C154-45AF-96D2-5F5723078434}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-PH"/>
+            <a:t>Stocks ready for sales</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A630D093-CB81-4A56-A50D-ED5D93908943}" type="parTrans" cxnId="{5EAB9224-10FD-4B8D-9CDC-FCDC1966F678}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{29DE5D6C-BACE-4AF2-BAAE-A46557F2F238}" type="sibTrans" cxnId="{5EAB9224-10FD-4B8D-9CDC-FCDC1966F678}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-PH"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" type="pres">
+      <dgm:prSet presAssocID="{4E4A302A-5733-4113-A538-EC51F413B6B2}" presName="linearFlow" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D90E26C2-C686-46F8-B67C-0E1625D26139}" type="pres">
+      <dgm:prSet presAssocID="{EE858CD3-19D8-453D-A168-A755714CDF2E}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9A01420B-2C55-41D6-9E3B-BE675E32A832}" type="pres">
+      <dgm:prSet presAssocID="{EE858CD3-19D8-453D-A168-A755714CDF2E}" presName="parentText" presStyleLbl="alignNode1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5EBBE7A7-0851-4E9C-A2C9-AD60ECD1CFA1}" type="pres">
+      <dgm:prSet presAssocID="{EE858CD3-19D8-453D-A168-A755714CDF2E}" presName="descendantText" presStyleLbl="alignAcc1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA451B66-350F-4FAF-BC52-C77ACDD07AD0}" type="pres">
+      <dgm:prSet presAssocID="{27465E25-E779-4CFF-93FD-E5C710F1AAD6}" presName="sp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D7CE87A3-90ED-4922-A439-D181CF25A261}" type="pres">
+      <dgm:prSet presAssocID="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C2702112-CF53-464C-9E50-00B2E04AB9A0}" type="pres">
+      <dgm:prSet presAssocID="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" presName="parentText" presStyleLbl="alignNode1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33C378EC-6936-4E61-A5E5-A51BF3313EB6}" type="pres">
+      <dgm:prSet presAssocID="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" presName="descendantText" presStyleLbl="alignAcc1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9BE3D7E6-E16B-4D8D-A9F6-C9795DAFE15D}" type="pres">
+      <dgm:prSet presAssocID="{0B68903F-04D7-4FCF-BF09-2C86F4835E73}" presName="sp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F91174E9-9EDD-42E0-8262-207E1D8C465D}" type="pres">
+      <dgm:prSet presAssocID="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5C4F929-0F17-42CA-BA0B-4D58FA37B741}" type="pres">
+      <dgm:prSet presAssocID="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" presName="parentText" presStyleLbl="alignNode1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91A76843-2B3B-43EA-BE4C-B1B36946B089}" type="pres">
+      <dgm:prSet presAssocID="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" presName="descendantText" presStyleLbl="alignAcc1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C2C00ED8-2133-4BD1-AC7C-FD8F08F8B0EA}" type="pres">
+      <dgm:prSet presAssocID="{E0D0686A-6C4F-4CB8-B280-41E1032E3F7C}" presName="sp" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D788971E-6A96-4054-A1F5-4C42675A4636}" type="pres">
+      <dgm:prSet presAssocID="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" presName="composite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A32D775-032D-4EDA-87BA-7DDEA59D9428}" type="pres">
+      <dgm:prSet presAssocID="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" presName="parentText" presStyleLbl="alignNode1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{542F058F-CDA3-4CF5-A020-E6548E1FCDF7}" type="pres">
+      <dgm:prSet presAssocID="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" presName="descendantText" presStyleLbl="alignAcc1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{C30CBE92-8F05-4F65-9A42-B5750AF0D88E}" srcId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" destId="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" srcOrd="3" destOrd="0" parTransId="{6B13253C-0700-4E20-BC9D-5277E92EE313}" sibTransId="{2C41830A-D189-4527-BC01-6B82E838CA2E}"/>
+    <dgm:cxn modelId="{1CDDF8CE-C401-4548-A624-58C1D2220191}" srcId="{EE858CD3-19D8-453D-A168-A755714CDF2E}" destId="{B6E70FD7-0C70-49A6-ACAB-B2964D34584C}" srcOrd="0" destOrd="0" parTransId="{A4CC741B-A28A-4537-BE68-DC5225FB6330}" sibTransId="{58647D4B-7280-4A6A-83BD-5C563B02171D}"/>
+    <dgm:cxn modelId="{180CA1C5-C311-4CF1-B213-02D4A9BFC3C4}" type="presOf" srcId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" destId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{62F82C77-3083-4E8D-ACC9-730BD3A4CA84}" type="presOf" srcId="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" destId="{7A32D775-032D-4EDA-87BA-7DDEA59D9428}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{61193226-30E3-494B-AB8E-EDFD8717A978}" srcId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" destId="{EE858CD3-19D8-453D-A168-A755714CDF2E}" srcOrd="0" destOrd="0" parTransId="{68E349BD-505F-452E-B1B3-739B56CE5405}" sibTransId="{27465E25-E779-4CFF-93FD-E5C710F1AAD6}"/>
+    <dgm:cxn modelId="{57E83FB0-4A71-4BEF-9668-9571801FB0E8}" type="presOf" srcId="{B6E70FD7-0C70-49A6-ACAB-B2964D34584C}" destId="{5EBBE7A7-0851-4E9C-A2C9-AD60ECD1CFA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{3DD67181-547C-44EE-827B-42460006986A}" srcId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" destId="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" srcOrd="2" destOrd="0" parTransId="{C2248E3D-9640-4395-8589-211C39C4346C}" sibTransId="{E0D0686A-6C4F-4CB8-B280-41E1032E3F7C}"/>
+    <dgm:cxn modelId="{76D0D815-C0EB-4A0D-A2F3-7D0D4C73E721}" type="presOf" srcId="{8475C3E5-C154-45AF-96D2-5F5723078434}" destId="{542F058F-CDA3-4CF5-A020-E6548E1FCDF7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{A60F6407-050E-47CC-B193-615DB752784D}" srcId="{4E4A302A-5733-4113-A538-EC51F413B6B2}" destId="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" srcOrd="1" destOrd="0" parTransId="{E6ACB66E-5F75-40F0-A65D-C52CBC1A14FA}" sibTransId="{0B68903F-04D7-4FCF-BF09-2C86F4835E73}"/>
+    <dgm:cxn modelId="{FFD1D5E5-6C30-4F8C-9838-9076554800BB}" srcId="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" destId="{50A715A9-6C4D-4FAB-BE31-5264609B3984}" srcOrd="0" destOrd="0" parTransId="{8605791B-4040-43B5-8627-46FDB6386791}" sibTransId="{ED1C0375-55F7-47FF-8AFC-69A04373F5E8}"/>
+    <dgm:cxn modelId="{2040902E-CB04-4472-829A-310C9D0D944E}" type="presOf" srcId="{9C5C7282-2C5D-47FF-BAB4-BE0FFB4232CA}" destId="{C5C4F929-0F17-42CA-BA0B-4D58FA37B741}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{3E1D32C0-D7AC-4C71-886A-E31700DDD652}" type="presOf" srcId="{EE858CD3-19D8-453D-A168-A755714CDF2E}" destId="{9A01420B-2C55-41D6-9E3B-BE675E32A832}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{822A7D57-C39E-4D4A-87B5-F5C584480A33}" type="presOf" srcId="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" destId="{C2702112-CF53-464C-9E50-00B2E04AB9A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{5EAB9224-10FD-4B8D-9CDC-FCDC1966F678}" srcId="{E2904C0E-84CD-4856-887A-93BF12E9CD3F}" destId="{8475C3E5-C154-45AF-96D2-5F5723078434}" srcOrd="0" destOrd="0" parTransId="{A630D093-CB81-4A56-A50D-ED5D93908943}" sibTransId="{29DE5D6C-BACE-4AF2-BAAE-A46557F2F238}"/>
+    <dgm:cxn modelId="{26AD6453-5B0B-4B48-93C3-1AD7665FA006}" type="presOf" srcId="{50A715A9-6C4D-4FAB-BE31-5264609B3984}" destId="{91A76843-2B3B-43EA-BE4C-B1B36946B089}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{58558B7D-9690-4EFE-BF69-8B410F214948}" type="presOf" srcId="{E9337BDD-54A5-4F9A-A271-FB65828DED21}" destId="{33C378EC-6936-4E61-A5E5-A51BF3313EB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{5397E603-DC95-4578-8612-6E3557CB4A6E}" srcId="{D7649131-46C2-4BCA-B4FA-5727C1E87049}" destId="{E9337BDD-54A5-4F9A-A271-FB65828DED21}" srcOrd="0" destOrd="0" parTransId="{1ED7153A-FFA5-41E0-ADFA-06174B7881B5}" sibTransId="{27778BE7-2A9D-49C8-B113-EFBFA3B237C4}"/>
+    <dgm:cxn modelId="{8C630D5E-0205-4851-8A92-ECB7929DD290}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{D90E26C2-C686-46F8-B67C-0E1625D26139}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{4373DC9E-7E32-4C4D-83C0-0635BE4CA439}" type="presParOf" srcId="{D90E26C2-C686-46F8-B67C-0E1625D26139}" destId="{9A01420B-2C55-41D6-9E3B-BE675E32A832}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{CBAAB92C-06E1-4081-BBBD-5DD7F90F71E8}" type="presParOf" srcId="{D90E26C2-C686-46F8-B67C-0E1625D26139}" destId="{5EBBE7A7-0851-4E9C-A2C9-AD60ECD1CFA1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{2D01765D-F13A-406E-952A-14CDEF54C9C7}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{FA451B66-350F-4FAF-BC52-C77ACDD07AD0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{49B13234-90C7-41D6-BB9E-4FC1BE14198E}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{D7CE87A3-90ED-4922-A439-D181CF25A261}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{23EAC054-07BF-496F-85E3-D5FC610556D0}" type="presParOf" srcId="{D7CE87A3-90ED-4922-A439-D181CF25A261}" destId="{C2702112-CF53-464C-9E50-00B2E04AB9A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{D9556583-9DB2-471D-8AC2-9F5F230F85C5}" type="presParOf" srcId="{D7CE87A3-90ED-4922-A439-D181CF25A261}" destId="{33C378EC-6936-4E61-A5E5-A51BF3313EB6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{EA0FF1F7-E8F7-48CF-8AED-BE0BC4744078}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{9BE3D7E6-E16B-4D8D-A9F6-C9795DAFE15D}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{45CC209B-F986-48CF-93C1-61DA91EE5B43}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{F91174E9-9EDD-42E0-8262-207E1D8C465D}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{0D59A8FE-EB9B-4C60-80EA-92F6FD80DABB}" type="presParOf" srcId="{F91174E9-9EDD-42E0-8262-207E1D8C465D}" destId="{C5C4F929-0F17-42CA-BA0B-4D58FA37B741}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{50851B55-17BD-44ED-9123-EDCD30497BB7}" type="presParOf" srcId="{F91174E9-9EDD-42E0-8262-207E1D8C465D}" destId="{91A76843-2B3B-43EA-BE4C-B1B36946B089}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{D2ABEF91-E2FA-4742-9D84-446927593F0F}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{C2C00ED8-2133-4BD1-AC7C-FD8F08F8B0EA}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{03B18386-D9C9-4797-B0F9-DE7E6021BC02}" type="presParOf" srcId="{1753C99E-CDDD-4BA6-93B8-46793170A8DA}" destId="{D788971E-6A96-4054-A1F5-4C42675A4636}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{E692202C-A53B-40B8-B825-006BE1088510}" type="presParOf" srcId="{D788971E-6A96-4054-A1F5-4C42675A4636}" destId="{7A32D775-032D-4EDA-87BA-7DDEA59D9428}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+    <dgm:cxn modelId="{6D972947-F840-4D1B-B3C6-52CF9CE7815B}" type="presParOf" srcId="{D788971E-6A96-4054-A1F5-4C42675A4636}" destId="{542F058F-CDA3-4CF5-A020-E6548E1FCDF7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{9A01420B-2C55-41D6-9E3B-BE675E32A832}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-120349" y="122298"/>
+          <a:ext cx="802332" cy="561632"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" kern="1200"/>
+            <a:t>Purchasing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="1" y="282764"/>
+        <a:ext cx="561632" cy="240700"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5EBBE7A7-0851-4E9C-A2C9-AD60ECD1CFA1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2306058" y="-1742476"/>
+          <a:ext cx="521516" cy="4010367"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="213360" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="285750" lvl="1" indent="-285750" algn="l" defTabSz="1333500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="3000" kern="1200"/>
+            <a:t>Buys items</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="561633" y="27407"/>
+        <a:ext cx="3984909" cy="470600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C2702112-CF53-464C-9E50-00B2E04AB9A0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-120349" y="767955"/>
+          <a:ext cx="802332" cy="561632"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" kern="1200"/>
+            <a:t>Inventory</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="1" y="928421"/>
+        <a:ext cx="561632" cy="240700"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{33C378EC-6936-4E61-A5E5-A51BF3313EB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2306058" y="-1096820"/>
+          <a:ext cx="521516" cy="4010367"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="213360" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="285750" lvl="1" indent="-285750" algn="l" defTabSz="1333500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="3000" kern="1200"/>
+            <a:t>Manage stocks</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="561633" y="673063"/>
+        <a:ext cx="3984909" cy="470600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C5C4F929-0F17-42CA-BA0B-4D58FA37B741}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-120349" y="1413611"/>
+          <a:ext cx="802332" cy="561632"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" kern="1200"/>
+            <a:t>Sales</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="1" y="1574077"/>
+        <a:ext cx="561632" cy="240700"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{91A76843-2B3B-43EA-BE4C-B1B36946B089}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2306058" y="-451163"/>
+          <a:ext cx="521516" cy="4010367"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="213360" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="285750" lvl="1" indent="-285750" algn="l" defTabSz="1333500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="3000" kern="1200"/>
+            <a:t>In &amp; out of stocks</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="561633" y="1318720"/>
+        <a:ext cx="3984909" cy="470600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7A32D775-032D-4EDA-87BA-7DDEA59D9428}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-120349" y="2059268"/>
+          <a:ext cx="802332" cy="561632"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="900" kern="1200"/>
+            <a:t>Market</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="1" y="2219734"/>
+        <a:ext cx="561632" cy="240700"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{542F058F-CDA3-4CF5-A020-E6548E1FCDF7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2306058" y="194492"/>
+          <a:ext cx="521516" cy="4010367"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="213360" tIns="19050" rIns="19050" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="285750" lvl="1" indent="-285750" algn="l" defTabSz="1333500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="3000" kern="1200"/>
+            <a:t>Stocks ready for sales</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="561633" y="1964375"/>
+        <a:ext cx="3984909" cy="470600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/chevron2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="12000"/>
+    <dgm:cat type="list" pri="16000"/>
+    <dgm:cat type="convert" pri="11000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="32">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="3" destId="32" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="linearFlow">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="lin">
+      <dgm:param type="linDir" val="fromT"/>
+      <dgm:param type="nodeHorzAlign" val="l"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="ch" forName="composite" refType="h"/>
+      <dgm:constr type="w" for="ch" forName="composite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="parentText" op="equ"/>
+      <dgm:constr type="h" for="ch" forName="sp" val="-14.88"/>
+      <dgm:constr type="h" for="ch" forName="sp" refType="w" refFor="des" refForName="parentText" op="gte" fact="-0.3"/>
+      <dgm:constr type="primFontSz" for="des" forName="parentText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="descendantText" op="equ" val="65"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name0" axis="ch" ptType="node">
+      <dgm:layoutNode name="composite">
+        <dgm:alg type="composite"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:choose name="Name1">
+          <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+            <dgm:constrLst>
+              <dgm:constr type="t" for="ch" forName="parentText"/>
+              <dgm:constr type="l" for="ch" forName="parentText"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="w" fact="0.4"/>
+              <dgm:constr type="h" for="ch" forName="parentText" refType="h"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="w" op="lte" fact="0.5"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="h" refFor="ch" refForName="parentText" op="lte" fact="0.7"/>
+              <dgm:constr type="h" for="ch" forName="parentText" refType="w" refFor="ch" refForName="parentText" op="lte" fact="3"/>
+              <dgm:constr type="l" for="ch" forName="descendantText" refType="w" refFor="ch" refForName="parentText"/>
+              <dgm:constr type="w" for="ch" forName="descendantText" refType="w"/>
+              <dgm:constr type="wOff" for="ch" forName="descendantText" refType="w" refFor="ch" refForName="parentText" fact="-1"/>
+              <dgm:constr type="t" for="ch" forName="descendantText"/>
+              <dgm:constr type="b" for="ch" forName="descendantText" refType="h" refFor="ch" refForName="parentText"/>
+              <dgm:constr type="bOff" for="ch" forName="descendantText" refType="w" refFor="ch" refForName="parentText" fact="-0.5"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name3">
+            <dgm:constrLst>
+              <dgm:constr type="t" for="ch" forName="parentText"/>
+              <dgm:constr type="r" for="ch" forName="parentText" refType="w"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="w" fact="0.4"/>
+              <dgm:constr type="h" for="ch" forName="parentText" refType="h"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="w" op="lte" fact="0.5"/>
+              <dgm:constr type="w" for="ch" forName="parentText" refType="h" refFor="ch" refForName="parentText" op="lte" fact="0.7"/>
+              <dgm:constr type="h" for="ch" forName="parentText" refType="w" refFor="ch" refForName="parentText" op="lte" fact="3"/>
+              <dgm:constr type="l" for="ch" forName="descendantText"/>
+              <dgm:constr type="w" for="ch" forName="descendantText" refType="w"/>
+              <dgm:constr type="wOff" for="ch" forName="descendantText" refType="w" refFor="ch" refForName="parentText" fact="-1"/>
+              <dgm:constr type="t" for="ch" forName="descendantText"/>
+              <dgm:constr type="b" for="ch" forName="descendantText" refType="h" refFor="ch" refForName="parentText"/>
+              <dgm:constr type="bOff" for="ch" forName="descendantText" refType="w" refFor="ch" refForName="parentText" fact="-0.5"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:ruleLst/>
+        <dgm:layoutNode name="parentText" styleLbl="alignNode1">
+          <dgm:varLst>
+            <dgm:chMax val="1"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="90" type="chevron" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="h" val="100" fact="NaN" max="NaN"/>
+            <dgm:rule type="primFontSz" val="24" fact="NaN" max="NaN"/>
+            <dgm:rule type="h" val="110" fact="NaN" max="NaN"/>
+            <dgm:rule type="primFontSz" val="18" fact="NaN" max="NaN"/>
+            <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="descendantText" styleLbl="alignAcc1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:choose name="Name4">
+            <dgm:if name="Name5" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+                <dgm:param type="txAnchorVertCh" val="mid"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="90" type="round2SameRect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+            </dgm:if>
+            <dgm:else name="Name6">
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+                <dgm:param type="txAnchorVertCh" val="mid"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" rot="-90" type="round2SameRect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:presOf axis="des" ptType="node"/>
+          <dgm:choose name="Name7">
+            <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" refType="primFontSz"/>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name9">
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" refType="primFontSz"/>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+      <dgm:forEach name="Name10" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="sp">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="w" val="1"/>
+            <dgm:constr type="h" val="37.5"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Cloud 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5981700" y="2638425"/>
-          <a:ext cx="1943100" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="cloud">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-PH" sz="2000"/>
-            <a:t>Inventory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="41" name="Diagram 40"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -401,7 +3493,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,4 +3501,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>